--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Bmp6</t>
+  </si>
+  <si>
+    <t>Acvr2a</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Bmp6</t>
-  </si>
-  <si>
-    <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H2">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I2">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J2">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N2">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O2">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P2">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q2">
-        <v>71.7191445686385</v>
+        <v>393.634510057852</v>
       </c>
       <c r="R2">
-        <v>286.876578274554</v>
+        <v>1574.538040231408</v>
       </c>
       <c r="S2">
-        <v>0.02954963087127747</v>
+        <v>0.1874239078902539</v>
       </c>
       <c r="T2">
-        <v>0.01882887123749348</v>
+        <v>0.1373569352573341</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H3">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I3">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J3">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>78.962081</v>
       </c>
       <c r="O3">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P3">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q3">
-        <v>176.7593293499477</v>
+        <v>699.2137544143106</v>
       </c>
       <c r="R3">
-        <v>1060.555976099686</v>
+        <v>4195.282526485864</v>
       </c>
       <c r="S3">
-        <v>0.07282815441763534</v>
+        <v>0.3329214562099401</v>
       </c>
       <c r="T3">
-        <v>0.06960858231871367</v>
+        <v>0.3659810913758889</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H4">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I4">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J4">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N4">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O4">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P4">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q4">
-        <v>39.80794559104</v>
+        <v>224.560100951444</v>
       </c>
       <c r="R4">
-        <v>238.84767354624</v>
+        <v>1347.360605708664</v>
       </c>
       <c r="S4">
-        <v>0.01640161919155836</v>
+        <v>0.1069213460739607</v>
       </c>
       <c r="T4">
-        <v>0.0156765397775798</v>
+        <v>0.1175388074202437</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H5">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I5">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J5">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N5">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O5">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P5">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q5">
-        <v>117.161115076315</v>
+        <v>235.559476830974</v>
       </c>
       <c r="R5">
-        <v>468.6444603052599</v>
+        <v>942.237907323896</v>
       </c>
       <c r="S5">
-        <v>0.04827257385451682</v>
+        <v>0.1121585545986714</v>
       </c>
       <c r="T5">
-        <v>0.03075903321325643</v>
+        <v>0.08219738610714877</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H6">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I6">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J6">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N6">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O6">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P6">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q6">
-        <v>70.92823569138966</v>
+        <v>100.2987284334413</v>
       </c>
       <c r="R6">
-        <v>425.569414148338</v>
+        <v>601.7923706006479</v>
       </c>
       <c r="S6">
-        <v>0.0292237616000238</v>
+        <v>0.04775592372898434</v>
       </c>
       <c r="T6">
-        <v>0.02793184354682936</v>
+        <v>0.05249816363585749</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H7">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I7">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J7">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N7">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O7">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P7">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q7">
-        <v>40.77335605444233</v>
+        <v>111.753488918924</v>
       </c>
       <c r="R7">
-        <v>244.640136326654</v>
+        <v>670.520933513544</v>
       </c>
       <c r="S7">
-        <v>0.01679938638474491</v>
+        <v>0.05320995765964885</v>
       </c>
       <c r="T7">
-        <v>0.01605672256035131</v>
+        <v>0.05849379189325345</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H8">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I8">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J8">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N8">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O8">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P8">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q8">
-        <v>21.787320042398</v>
+        <v>30.22972946447067</v>
       </c>
       <c r="R8">
-        <v>130.723920254388</v>
+        <v>181.378376786824</v>
       </c>
       <c r="S8">
-        <v>0.008976783936834236</v>
+        <v>0.01439348910201891</v>
       </c>
       <c r="T8">
-        <v>0.008579940115482625</v>
+        <v>0.01582278568114278</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H9">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I9">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J9">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>78.962081</v>
       </c>
       <c r="O9">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P9">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q9">
         <v>53.69712790343245</v>
       </c>
       <c r="R9">
-        <v>483.274151130892</v>
+        <v>483.2741511308919</v>
       </c>
       <c r="S9">
-        <v>0.02212422245047317</v>
+        <v>0.02556718300096451</v>
       </c>
       <c r="T9">
-        <v>0.03171923904970689</v>
+        <v>0.04215906798839428</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H10">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I10">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J10">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N10">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O10">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P10">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q10">
-        <v>12.09312319658667</v>
+        <v>17.24541656492133</v>
       </c>
       <c r="R10">
-        <v>108.83810876928</v>
+        <v>155.208749084292</v>
       </c>
       <c r="S10">
-        <v>0.004982593262779667</v>
+        <v>0.008211178855527279</v>
       </c>
       <c r="T10">
-        <v>0.007143485704112835</v>
+        <v>0.01353984315057239</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H11">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I11">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J11">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N11">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O11">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P11">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q11">
-        <v>35.59198490228666</v>
+        <v>18.09012948673134</v>
       </c>
       <c r="R11">
-        <v>213.55190941372</v>
+        <v>108.540776920388</v>
       </c>
       <c r="S11">
-        <v>0.0146645644222945</v>
+        <v>0.008613377831495512</v>
       </c>
       <c r="T11">
-        <v>0.01401627636893933</v>
+        <v>0.009468700080465091</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1166,13 +1166,13 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H12">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I12">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J12">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N12">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O12">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P12">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q12">
-        <v>21.54705246898178</v>
+        <v>7.702585390004888</v>
       </c>
       <c r="R12">
-        <v>193.923472220836</v>
+        <v>69.32326851004399</v>
       </c>
       <c r="S12">
-        <v>0.008877789196343541</v>
+        <v>0.003667484983572503</v>
       </c>
       <c r="T12">
-        <v>0.01272798257123398</v>
+        <v>0.006047508196855923</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1228,13 +1228,13 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H13">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I13">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J13">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N13">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O13">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P13">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q13">
-        <v>12.38640202562089</v>
+        <v>8.582270228881333</v>
       </c>
       <c r="R13">
-        <v>111.477618230588</v>
+        <v>77.240432059932</v>
       </c>
       <c r="S13">
-        <v>0.005103429633492758</v>
+        <v>0.004086335379056884</v>
       </c>
       <c r="T13">
-        <v>0.007316727395979187</v>
+        <v>0.006738172565297518</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H14">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I14">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J14">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N14">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O14">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P14">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q14">
-        <v>136.1021862266842</v>
+        <v>44.466364468827</v>
       </c>
       <c r="R14">
-        <v>544.4087449067368</v>
+        <v>177.865457875308</v>
       </c>
       <c r="S14">
-        <v>0.05607664993721958</v>
+        <v>0.02117207608955588</v>
       </c>
       <c r="T14">
-        <v>0.03573174993953004</v>
+        <v>0.01551633149384194</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H15">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I15">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J15">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>78.962081</v>
       </c>
       <c r="O15">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P15">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q15">
-        <v>335.4380661563305</v>
+        <v>78.985690662219</v>
       </c>
       <c r="R15">
-        <v>2012.628396937983</v>
+        <v>473.914143973314</v>
       </c>
       <c r="S15">
-        <v>0.1382067660554486</v>
+        <v>0.03760800039902022</v>
       </c>
       <c r="T15">
-        <v>0.1320969497154293</v>
+        <v>0.04134253522494154</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H16">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I16">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J16">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N16">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O16">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P16">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q16">
-        <v>75.54396328511999</v>
+        <v>25.367113499769</v>
       </c>
       <c r="R16">
-        <v>453.2637797107199</v>
+        <v>152.202680998614</v>
       </c>
       <c r="S16">
-        <v>0.03112552782182482</v>
+        <v>0.01207821830287078</v>
       </c>
       <c r="T16">
-        <v>0.02974953687792839</v>
+        <v>0.01327760477406234</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H17">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I17">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J17">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N17">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O17">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P17">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q17">
-        <v>222.3378987375075</v>
+        <v>26.6096424048615</v>
       </c>
       <c r="R17">
-        <v>889.3515949500298</v>
+        <v>106.438569619446</v>
       </c>
       <c r="S17">
-        <v>0.09160737869790155</v>
+        <v>0.01266983214034862</v>
       </c>
       <c r="T17">
-        <v>0.05837174567157369</v>
+        <v>0.009285311210361613</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H18">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I18">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J18">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N18">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O18">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P18">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q18">
-        <v>134.6012700076315</v>
+        <v>11.330103688383</v>
       </c>
       <c r="R18">
-        <v>807.6076200457888</v>
+        <v>67.98062213029799</v>
       </c>
       <c r="S18">
-        <v>0.05545824434261191</v>
+        <v>0.005394680232092527</v>
       </c>
       <c r="T18">
-        <v>0.05300655766225554</v>
+        <v>0.00593038064125291</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H19">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I19">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J19">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N19">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O19">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P19">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q19">
-        <v>77.37603302696449</v>
+        <v>12.624074469999</v>
       </c>
       <c r="R19">
-        <v>464.2561981617869</v>
+        <v>75.74444681999401</v>
       </c>
       <c r="S19">
-        <v>0.03188037487037167</v>
+        <v>0.006010787444213321</v>
       </c>
       <c r="T19">
-        <v>0.03047101380312269</v>
+        <v>0.006607668288806434</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H20">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I20">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J20">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N20">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O20">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P20">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q20">
-        <v>106.9822305447045</v>
+        <v>0.06380003821566667</v>
       </c>
       <c r="R20">
-        <v>641.8933832682269</v>
+        <v>0.382800229294</v>
       </c>
       <c r="S20">
-        <v>0.04407868277564896</v>
+        <v>3.037755120649962E-05</v>
       </c>
       <c r="T20">
-        <v>0.04213006141682824</v>
+        <v>3.339409081783819E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H21">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I21">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J21">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>78.962081</v>
       </c>
       <c r="O21">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P21">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q21">
-        <v>263.6688911612103</v>
+        <v>0.1133281333641111</v>
       </c>
       <c r="R21">
-        <v>2373.020020450893</v>
+        <v>1.019953200277</v>
       </c>
       <c r="S21">
-        <v>0.1086365217113842</v>
+        <v>5.39597039545336E-05</v>
       </c>
       <c r="T21">
-        <v>0.1557509109938629</v>
+        <v>8.897698379860586E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H22">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I22">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J22">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N22">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O22">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P22">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q22">
-        <v>59.38083671167999</v>
+        <v>0.03639656243633333</v>
       </c>
       <c r="R22">
-        <v>534.42753040512</v>
+        <v>0.327569061927</v>
       </c>
       <c r="S22">
-        <v>0.02446601693608371</v>
+        <v>1.732974571916129E-05</v>
       </c>
       <c r="T22">
-        <v>0.03507664242334626</v>
+        <v>2.857592594257037E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H23">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I23">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J23">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N23">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O23">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P23">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q23">
-        <v>174.767246588855</v>
+        <v>0.03817933448383334</v>
       </c>
       <c r="R23">
-        <v>1048.60347953313</v>
+        <v>0.229076006903</v>
       </c>
       <c r="S23">
-        <v>0.07200737900809334</v>
+        <v>1.817858924147048E-05</v>
       </c>
       <c r="T23">
-        <v>0.06882409157997207</v>
+        <v>1.998375234208987E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H24">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I24">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J24">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N24">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O24">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P24">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q24">
-        <v>105.8024451979243</v>
+        <v>0.01625635594322222</v>
       </c>
       <c r="R24">
-        <v>952.2220067813189</v>
+        <v>0.146307203489</v>
       </c>
       <c r="S24">
-        <v>0.04359258911524101</v>
+        <v>7.740250615947962E-06</v>
       </c>
       <c r="T24">
-        <v>0.06249818532774734</v>
+        <v>1.276330489568016E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,25 +1960,25 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H25">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I25">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J25">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N25">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O25">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P25">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q25">
-        <v>60.82092311241966</v>
+        <v>0.01811293644633333</v>
       </c>
       <c r="R25">
-        <v>547.388308011777</v>
+        <v>0.163016428017</v>
       </c>
       <c r="S25">
-        <v>0.02505935950619591</v>
+        <v>8.624237066106508E-06</v>
       </c>
       <c r="T25">
-        <v>0.03592731072872454</v>
+        <v>1.422095648176407E-05</v>
       </c>
     </row>
   </sheetData>
